--- a/data/s_vals/2022/thompson_keegan.xlsx
+++ b/data/s_vals/2022/thompson_keegan.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E2" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7.832131054842184</v>
+        <v>1158.538592272451</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C3" t="n">
-        <v>31.86878902860352</v>
+        <v>3286.919754855326</v>
       </c>
       <c r="D3" t="n">
-        <v>36.41821892982963</v>
+        <v>401567.231247708</v>
       </c>
       <c r="E3" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>71.73765355208447</v>
+        <v>405987.8485715312</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C4" t="n">
-        <v>3.335469364252891</v>
+        <v>10.34677158129881</v>
       </c>
       <c r="D4" t="n">
-        <v>5.12556560802943</v>
+        <v>261.3203778131603</v>
       </c>
       <c r="E4" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>11.91168056593364</v>
+        <v>1405.364718362363</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C5" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D5" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E5" t="n">
-        <v>4.68514169765536</v>
+        <v>2195978.878461985</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9.79610889403224</v>
+        <v>2196003.585428127</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/thompson_keegan.xlsx
+++ b/data/s_vals/2022/thompson_keegan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>1158.538592272451</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>405987.8485715312</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>1405.364718362363</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -563,6 +577,9 @@
       </c>
       <c r="G5" t="n">
         <v>2196003.585428127</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/thompson_keegan.xlsx
+++ b/data/s_vals/2022/thompson_keegan.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E2" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1158.538592272451</v>
+        <v>2819.355250465005</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C3" t="n">
-        <v>3286.919754855326</v>
+        <v>2919.202174992006</v>
       </c>
       <c r="D3" t="n">
-        <v>401567.231247708</v>
+        <v>186123.597850132</v>
       </c>
       <c r="E3" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>405987.8485715312</v>
+        <v>191841.0204081306</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C4" t="n">
-        <v>10.34677158129881</v>
+        <v>9.983522426115931</v>
       </c>
       <c r="D4" t="n">
-        <v>261.3203778131603</v>
+        <v>189.6080260415259</v>
       </c>
       <c r="E4" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1405.364718362363</v>
+        <v>2997.811931474268</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D5" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E5" t="n">
-        <v>2195978.878461985</v>
+        <v>14773364.14517103</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2196003.585428127</v>
+        <v>14773385.14352139</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
